--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luvletteru/PycharmProjects/meterReader/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5802659D-645D-3C4F-ACA0-7CD3DF8B73B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC3CBF6-343A-7F4F-84CB-FBF502773DA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="1000" windowWidth="33700" windowHeight="19520" firstSheet="34" activeTab="48" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2860" yWindow="680" windowWidth="33700" windowHeight="19520" firstSheet="34" activeTab="48" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1389,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23"/>
@@ -22434,7 +22434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
@@ -23184,7 +23186,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -23795,6 +23797,7 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
